--- a/test/integration/project/data_pembelian.xlsx
+++ b/test/integration/project/data_pembelian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="180" windowWidth="14940" windowHeight="7515" activeTab="2"/>
+    <workbookView xWindow="10080" yWindow="180" windowWidth="14940" windowHeight="7515" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -214,9 +214,6 @@
     <t>nomor</t>
   </si>
   <si>
-    <t>tanggalItemStok</t>
-  </si>
-  <si>
     <t>tanggal</t>
   </si>
   <si>
@@ -440,6 +437,9 @@
   </si>
   <si>
     <t>jumlahTukar</t>
+  </si>
+  <si>
+    <t>saldo</t>
   </si>
 </sst>
 </file>
@@ -1070,13 +1070,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -1331,16 +1331,16 @@
         <v>58</v>
       </c>
       <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
         <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1">
         <v>41699</v>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1">
         <v>41700</v>
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="1">
         <v>41701</v>
@@ -1435,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1">
         <v>41702</v>
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="1">
         <v>41702</v>
@@ -1487,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="1">
         <v>41703</v>
@@ -1510,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="1">
         <v>41703</v>
@@ -1553,13 +1553,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1808,16 +1808,16 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3">
         <v>41711</v>
@@ -1851,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1">
         <v>41712</v>
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1">
         <v>41713</v>
@@ -1891,7 +1891,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1">
         <v>41701</v>
@@ -1917,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1">
         <v>41702</v>
@@ -1937,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1">
         <v>41702</v>
@@ -1963,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1">
         <v>41702</v>
@@ -2002,7 +2002,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -2011,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2134,393 +2134,397 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
       <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" s="3">
+      <c r="D2"/>
+      <c r="E2" s="3">
         <v>41628</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" s="3">
+      <c r="D3"/>
+      <c r="E3" s="3">
         <v>41654</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="3">
+      <c r="D4"/>
+      <c r="E4" s="3">
         <v>41649</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" s="3">
+      <c r="D5"/>
+      <c r="E5" s="3">
         <v>41678</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6"/>
-      <c r="D6" s="3">
+      <c r="D6"/>
+      <c r="E6" s="3">
         <v>41654</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" s="3">
+      <c r="D7"/>
+      <c r="E7" s="3">
         <v>41649</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" s="3">
+      <c r="D8"/>
+      <c r="E8" s="3">
         <v>41651</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-7</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" s="3">
+      <c r="D9"/>
+      <c r="E9" s="3">
         <v>41654</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" s="3">
+      <c r="D10"/>
+      <c r="E10" s="3">
         <v>41654</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" s="3">
+      <c r="D11"/>
+      <c r="E11" s="3">
         <v>41654</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" s="3">
+      <c r="D12"/>
+      <c r="E12" s="3">
         <v>41640</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" s="3">
+      <c r="D13"/>
+      <c r="E13" s="3">
         <v>41672</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-12</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" s="3">
+      <c r="D14"/>
+      <c r="E14" s="3">
         <v>41640</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" s="3">
+      <c r="D15"/>
+      <c r="E15" s="3">
         <v>41669</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-13</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" s="3">
+      <c r="D16"/>
+      <c r="E16" s="3">
         <v>41672</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-14</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" s="3">
+      <c r="D17"/>
+      <c r="E17" s="3">
         <v>41685</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-15</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" s="3">
+      <c r="D18"/>
+      <c r="E18" s="3">
         <v>41685</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-16</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" s="3">
-        <v>41692</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19"/>
+      <c r="E19" s="3">
+        <v>41692</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-17</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" s="3">
+      <c r="D20"/>
+      <c r="E20" s="3">
         <v>41646</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-18</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" s="1">
+      <c r="D21"/>
+      <c r="E21" s="1">
         <v>40179</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-18</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" s="1">
+      <c r="D22"/>
+      <c r="E22" s="1">
         <v>40188</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-18</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" s="1">
+      <c r="D23"/>
+      <c r="E23" s="1">
         <v>40198</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
@@ -2562,13 +2566,13 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -2577,19 +2581,19 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2597,7 +2601,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -2606,7 +2610,7 @@
         <v>41875</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1">
         <v>41875</v>
@@ -2641,13 +2645,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2688,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2697,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2706,7 +2710,7 @@
         <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2714,7 +2718,7 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1">
         <v>41875</v>
@@ -2750,7 +2754,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -2759,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2859,10 +2863,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
         <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2876,10 +2880,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
         <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2893,10 +2897,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +2913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -2938,10 +2942,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" t="s">
-        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2953,25 +2957,25 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
       <c r="M1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -3890,10 +3894,10 @@
         <v>31</v>
       </c>
       <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
         <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4612,19 +4616,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>58</v>
@@ -4683,10 +4687,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -4698,13 +4702,13 @@
         <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4721,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3">
         <v>41699</v>
@@ -4747,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="1">
         <v>41700</v>
@@ -4770,7 +4774,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1">
         <v>41701</v>
@@ -4790,7 +4794,7 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="1">
         <v>41702</v>
@@ -4813,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="1">
         <v>41702</v>
@@ -4836,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1">
         <v>41703</v>
@@ -4856,7 +4860,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1">
         <v>41703</v>

--- a/test/integration/project/data_pembelian.xlsx
+++ b/test/integration/project/data_pembelian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="180" windowWidth="14940" windowHeight="7515" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="10080" yWindow="180" windowWidth="14940" windowHeight="7515" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>saldo</t>
+  </si>
+  <si>
+    <t>ongkosKirimBeli</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2911,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2924,14 +2927,15 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2948,37 +2952,40 @@
         <v>111</v>
       </c>
       <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>118</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -2994,29 +3001,29 @@
       <c r="E2">
         <v>1100</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>37</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -3032,26 +3039,26 @@
       <c r="E3">
         <v>1600</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="N3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -3067,26 +3074,26 @@
       <c r="E4">
         <v>1000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>28</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
@@ -3102,23 +3109,23 @@
       <c r="E5">
         <v>13100</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
@@ -3134,23 +3141,23 @@
       <c r="E6">
         <v>600</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
@@ -3166,23 +3173,23 @@
       <c r="E7">
         <v>900</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-7</v>
       </c>
@@ -3198,23 +3205,23 @@
       <c r="E8">
         <v>200</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-8</v>
       </c>
@@ -3230,23 +3237,23 @@
       <c r="E9">
         <v>500</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-9</v>
       </c>
@@ -3262,23 +3269,23 @@
       <c r="E10">
         <v>400</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -3294,23 +3301,23 @@
       <c r="E11">
         <v>1500</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-11</v>
       </c>
@@ -3326,19 +3333,19 @@
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>

--- a/test/integration/project/data_pembelian.xlsx
+++ b/test/integration/project/data_pembelian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="180" windowWidth="14940" windowHeight="7515" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="10080" yWindow="180" windowWidth="14940" windowHeight="7515" tabRatio="726" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -13,19 +13,20 @@
     <sheet name="Gudang" sheetId="1" r:id="rId4"/>
     <sheet name="StokProduk" sheetId="3" r:id="rId5"/>
     <sheet name="PeriodeItemStok" sheetId="5" r:id="rId6"/>
-    <sheet name="KewajibanPembayaran" sheetId="11" r:id="rId7"/>
-    <sheet name="kewajibanpembayaran_items" sheetId="12" r:id="rId8"/>
-    <sheet name="FakturBeli" sheetId="9" r:id="rId9"/>
-    <sheet name="FakturBeli_listItemFaktur" sheetId="10" r:id="rId10"/>
-    <sheet name="PurchaseOrder" sheetId="13" r:id="rId11"/>
-    <sheet name="PurchaseOrder_listItemFaktur" sheetId="14" r:id="rId12"/>
-    <sheet name="PenerimaanBarang" sheetId="7" r:id="rId13"/>
-    <sheet name="PenerimaanBarang_items" sheetId="8" r:id="rId14"/>
-    <sheet name="PeriodeItemStok_listItem" sheetId="4" r:id="rId15"/>
-    <sheet name="ReturBeli" sheetId="16" r:id="rId16"/>
-    <sheet name="ReturBeli_kemasan" sheetId="18" r:id="rId17"/>
-    <sheet name="Kemasan" sheetId="19" r:id="rId18"/>
-    <sheet name="Kemasan_items" sheetId="17" r:id="rId19"/>
+    <sheet name="periodeitemstok_itemstok" sheetId="21" r:id="rId7"/>
+    <sheet name="itemstok" sheetId="20" r:id="rId8"/>
+    <sheet name="KewajibanPembayaran" sheetId="11" r:id="rId9"/>
+    <sheet name="kewajibanpembayaran_items" sheetId="12" r:id="rId10"/>
+    <sheet name="FakturBeli" sheetId="9" r:id="rId11"/>
+    <sheet name="FakturBeli_listItemFaktur" sheetId="10" r:id="rId12"/>
+    <sheet name="PurchaseOrder" sheetId="13" r:id="rId13"/>
+    <sheet name="PurchaseOrder_listItemFaktur" sheetId="14" r:id="rId14"/>
+    <sheet name="PenerimaanBarang" sheetId="7" r:id="rId15"/>
+    <sheet name="PenerimaanBarang_items" sheetId="8" r:id="rId16"/>
+    <sheet name="ReturBeli" sheetId="16" r:id="rId17"/>
+    <sheet name="ReturBeli_kemasan" sheetId="18" r:id="rId18"/>
+    <sheet name="Kemasan" sheetId="19" r:id="rId19"/>
+    <sheet name="Kemasan_items" sheetId="17" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -443,13 +444,16 @@
   </si>
   <si>
     <t>ongkosKirimBeli</t>
+  </si>
+  <si>
+    <t>listItem_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -459,13 +463,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7D7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -480,12 +496,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,6 +1070,284 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41732</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>41692</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3">
+        <v>41699</v>
+      </c>
+      <c r="J2" s="1">
+        <v>41729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="1">
+        <v>41700</v>
+      </c>
+      <c r="J3" s="1">
+        <v>41713</v>
+      </c>
+      <c r="K3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1">
+        <v>41701</v>
+      </c>
+      <c r="J4" s="1">
+        <v>41713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1">
+        <v>41702</v>
+      </c>
+      <c r="J5" s="1">
+        <v>41713</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="1">
+        <v>41702</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41713</v>
+      </c>
+      <c r="K6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41703</v>
+      </c>
+      <c r="J7" s="1">
+        <v>41713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="1">
+        <v>41703</v>
+      </c>
+      <c r="J8" s="1">
+        <v>41713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1288,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -1534,7 +1829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1771,7 +2066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -1987,7 +2282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2135,410 +2430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" s="3">
-        <v>41628</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" s="3">
-        <v>41649</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="3">
-        <v>41678</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-5</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="3">
-        <v>41649</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>-6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="3">
-        <v>41651</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>-7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>-8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>-9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" s="3">
-        <v>41640</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>-11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="3">
-        <v>41672</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>-12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="3">
-        <v>41640</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>-12</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="3">
-        <v>41669</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>-13</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="3">
-        <v>41672</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>-14</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="3">
-        <v>41685</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>-15</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="3">
-        <v>41685</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>-16</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="3">
-        <v>41692</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>-17</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="3">
-        <v>41646</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>-18</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="1">
-        <v>40179</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>-18</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="1">
-        <v>40188</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>-18</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23" s="1">
-        <v>40198</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2631,7 +2523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2673,7 +2565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2738,82 +2630,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>-2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>-3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2912,11 +2728,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>-3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3858,7 +3750,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4524,6 +4416,673 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-6</v>
+      </c>
+      <c r="B8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9">
+        <v>-8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-8</v>
+      </c>
+      <c r="B10">
+        <v>-9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-9</v>
+      </c>
+      <c r="B11">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>-11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-11</v>
+      </c>
+      <c r="B13">
+        <v>-12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-12</v>
+      </c>
+      <c r="B14">
+        <v>-13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-12</v>
+      </c>
+      <c r="B15">
+        <v>-14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-13</v>
+      </c>
+      <c r="B16">
+        <v>-15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-14</v>
+      </c>
+      <c r="B17">
+        <v>-16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-15</v>
+      </c>
+      <c r="B18">
+        <v>-17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-16</v>
+      </c>
+      <c r="B19">
+        <v>-18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-17</v>
+      </c>
+      <c r="B20">
+        <v>-19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-18</v>
+      </c>
+      <c r="B21">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-18</v>
+      </c>
+      <c r="B22">
+        <v>-21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-18</v>
+      </c>
+      <c r="B23">
+        <v>-22</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41640</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41641</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41642</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41643</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41644</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41645</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>41646</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>41647</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>41648</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41649</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41650</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>41651</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41652</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>41653</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>41654</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>41655</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>41656</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-18</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>41657</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>41658</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41659</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>41660</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>41661</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4602,282 +5161,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-2</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>41732</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>41692</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="3">
-        <v>41699</v>
-      </c>
-      <c r="J2" s="1">
-        <v>41729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41692</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="1">
-        <v>41700</v>
-      </c>
-      <c r="J3" s="1">
-        <v>41713</v>
-      </c>
-      <c r="K3">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>41692</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1">
-        <v>41701</v>
-      </c>
-      <c r="J4" s="1">
-        <v>41713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>41692</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="1">
-        <v>41702</v>
-      </c>
-      <c r="J5" s="1">
-        <v>41713</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>41692</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="1">
-        <v>41702</v>
-      </c>
-      <c r="J6" s="1">
-        <v>41713</v>
-      </c>
-      <c r="K6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>41692</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="1">
-        <v>41703</v>
-      </c>
-      <c r="J7" s="1">
-        <v>41713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>-7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>41692</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="1">
-        <v>41703</v>
-      </c>
-      <c r="J8" s="1">
-        <v>41713</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>